--- a/back/public/dealer/files/salesorder/excel/salesorder_34.xlsx
+++ b/back/public/dealer/files/salesorder/excel/salesorder_34.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t xml:space="preserve">PT. SUNWAY TREK MASINDO
 (A MEMBER OF THE SUNWAY GROUP)
@@ -26,13 +26,13 @@
     <t>SOLD TO:</t>
   </si>
   <si>
-    <t>CV Maju Abadi - jakartaa</t>
+    <t>Gala Jaya - Pontianak - Sulawesi</t>
   </si>
   <si>
     <t>SO NO</t>
   </si>
   <si>
-    <t>SS-01/101/19/JUL/2025</t>
+    <t>SS-11/#8003/21/JUL/2025</t>
   </si>
   <si>
     <t>DELIVERED TO:</t>
@@ -44,7 +44,7 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>7/15/2025</t>
+    <t>7/21/2025</t>
   </si>
   <si>
     <t>PHONE:</t>
@@ -119,7 +119,7 @@
     <t>SALES PERSONNEL</t>
   </si>
   <si>
-    <t>alfredo dagonza</t>
+    <t>superadminnn</t>
   </si>
 </sst>
 </file>
@@ -743,11 +743,11 @@
   <sheetPr>
     <tabColor rgb="FFB8CCE4"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
@@ -913,7 +913,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="10">
-        <v>1119</v>
+        <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>27</v>
@@ -928,90 +928,61 @@
         <v>33300</v>
       </c>
       <c r="I16" s="10">
-        <v>37262700</v>
+        <v>33300</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>2</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="10">
-        <v>8748</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="10">
-        <v>30000</v>
-      </c>
-      <c r="G17" s="10">
-        <v>11</v>
-      </c>
-      <c r="H17" s="10">
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12">
         <v>33300</v>
       </c>
-      <c r="I17" s="10">
-        <v>291308400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12">
-        <v>328571100</v>
-      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="8" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1026,7 +997,7 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
